--- a/__XLSX/Sample01.xlsx
+++ b/__XLSX/Sample01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\음악퀴즈\맵\Excel_Cutter\__XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC808278-46D4-4634-B897-F13B0F52CB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A96F33-3765-45E9-A0B8-E473B98D1AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,166 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>김민호</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4BD67FC3-6D0D-4BE0-9886-8B14D63106F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정답 시 or 힌트로 제공될 텍스트
+Db("작성한 내용"), 형태로 저장됨.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C15BFABC-0D13-404F-B8CE-1858C437EADC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문제의 index입니다.
+(1부터 시작)
+잘 모르겠으면, 아래의 함수 사용.
+=IF(B3&lt;&gt;"",MAX($A$2:A2)+1,"")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{50C4EB34-AC21-4548-9ED5-26B9D1D0F363}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>[원제]에만 이름 작성하고
+[번역]에 이름을 작성하지 않으면
+or
+[원제]와 같은 이름을 [번역]에 작성하면,
+[Db("원제"),] 형식으로 정리됨.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7907D2F9-23D5-4E21-B00C-D351E630A866}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>[원제]와 다른 이름을 [번역]에 작성하면,
+[Db("원제(번역)"),] 형식으로 정리됨.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{35154CD1-4CA7-4222-BA7D-A59785CB6A96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그 외에 주고싶은 힌트</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{A48C17A1-73D8-4293-8BCE-B97B00EECB62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그 외에 주고싶은 힌트</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{BCEDCFC0-BB0B-4D05-9437-A6C3A25CD176}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그 외에 주고싶은 힌트</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{1DA9D2C9-A8B4-412C-8294-2873A7D9F54D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소 작성.
+자세한 내용은 글 참고.
+youtube
+nicovideo
+저장한 파일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{4478CA66-C988-401E-924C-DF3A09D44B1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정답과 초성을 겸함.
+띄어쓰기 하면,
+띄쓰 있는 and 없는 버전 둘 다 작성됨.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
@@ -213,11 +373,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>애니 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Singer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +407,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -519,6 +687,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -783,14 +955,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -863,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="6" t="s">
@@ -1174,5 +1346,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>